--- a/DOC/結合テスト/社員情報更新作成結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/社員情報更新作成結合テスト_項目仕様書.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzan\Desktop\kaisha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCF332C-111B-43FE-B069-E9587C697720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E98AD7-8293-4F51-8D05-AA54DCBAA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="165" windowWidth="23805" windowHeight="15210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="10" r:id="rId2"/>
-    <sheet name="結合テスト" sheetId="2" r:id="rId3"/>
+    <sheet name="結合テスト項目" sheetId="2" r:id="rId3"/>
     <sheet name="データチェック" sheetId="9" r:id="rId4"/>
-    <sheet name="新規作成テストデータ" sheetId="7" r:id="rId5"/>
-    <sheet name="変更テストデータ" sheetId="8" r:id="rId6"/>
+    <sheet name="データ準備" sheetId="11" r:id="rId5"/>
+    <sheet name="新規作成テストデータ" sheetId="7" r:id="rId6"/>
+    <sheet name="変更テストデータ" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="__a1">#REF!</definedName>
@@ -840,15 +841,15 @@
     <definedName name="ソフト名">[3]定数!$B$2:$B$6</definedName>
     <definedName name="可否" localSheetId="0">[4]定数!$A$2:$A$4</definedName>
     <definedName name="可否">[3]定数!$A$2:$A$4</definedName>
+    <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
     <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
-    <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="149">
   <si>
     <t>システム名</t>
   </si>
@@ -887,9 +888,6 @@
   </si>
   <si>
     <t>実施日</t>
-  </si>
-  <si>
-    <t>　　〇</t>
   </si>
   <si>
     <t>更新時、画面入力値のチェック</t>
@@ -946,7 +944,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>aaa</t>
     </r>
@@ -987,7 +985,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>aaa</t>
     </r>
@@ -1062,7 +1060,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1107,7 +1105,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1154,7 +1152,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1178,7 +1176,8 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>のみ</t>
     </r>
@@ -1320,91 +1319,288 @@
 </t>
   </si>
   <si>
+    <t>社員ID</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>社員２</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>社員タイプ</t>
+  </si>
+  <si>
+    <t>正社員（select）</t>
+  </si>
+  <si>
+    <t>個人番号</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>入社</t>
+  </si>
+  <si>
+    <t>所属部門</t>
+  </si>
+  <si>
+    <t>部門１（select）</t>
+  </si>
+  <si>
+    <t>社年　</t>
+  </si>
+  <si>
+    <t>２</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>池袋</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>前回更新日</t>
+  </si>
+  <si>
+    <t>社員３</t>
+  </si>
+  <si>
+    <t>女性/男性</t>
+  </si>
+  <si>
+    <t>契約社員</t>
+  </si>
+  <si>
+    <t>自動結果</t>
+  </si>
+  <si>
+    <t>部門２</t>
+  </si>
+  <si>
+    <t>１</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
     <t>入力した文字を画面に表示する。DataBase に保存される</t>
-  </si>
-  <si>
-    <t>　　　×</t>
-  </si>
-  <si>
-    <t>社員ID</t>
-  </si>
-  <si>
-    <t>E001</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>氏名</t>
-  </si>
-  <si>
-    <t>社員２</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>性別</t>
-  </si>
-  <si>
-    <t>女性</t>
-  </si>
-  <si>
-    <t>社員タイプ</t>
-  </si>
-  <si>
-    <t>正社員（select）</t>
-  </si>
-  <si>
-    <t>個人番号</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>年齢</t>
-  </si>
-  <si>
-    <t>入社</t>
-  </si>
-  <si>
-    <t>所属部門</t>
-  </si>
-  <si>
-    <t>部門１（select）</t>
-  </si>
-  <si>
-    <t>社年　</t>
-  </si>
-  <si>
-    <t>２</t>
-  </si>
-  <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>池袋</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>前回更新日</t>
-  </si>
-  <si>
-    <t>社員３</t>
-  </si>
-  <si>
-    <t>女性/男性</t>
-  </si>
-  <si>
-    <t>契約社員</t>
-  </si>
-  <si>
-    <t>自動結果</t>
-  </si>
-  <si>
-    <t>部門２</t>
-  </si>
-  <si>
-    <t>１</t>
-  </si>
-  <si>
-    <t>千葉県</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>社齢</t>
+    <rPh sb="0" eb="1">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ログイン者：</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ID：E001</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>E001の情報（社員情報テーブル）</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>XX</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>計算値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンチ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>結合テスト項目No</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>①「データ準備」シートのログイン者を利用し、ログインする。
+②社内管理システム画面左側の「社員情報変更」をクリック</t>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>入力（後回し）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>更新ボタンをクリックする</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>社員情報テーブルの「XXX」項目に画面入力したデータを設定される</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -1412,14 +1608,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy/m"/>
-    <numFmt numFmtId="168" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1433,26 +1629,25 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1496,6 +1691,34 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1763,10 +1986,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1788,7 +2011,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1932,6 +2155,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,12 +2215,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
@@ -2389,12 +2618,12 @@
       <selection activeCell="G23" sqref="G23:R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.7265625" style="38"/>
-    <col min="22" max="22" width="5.7265625" style="39"/>
-    <col min="23" max="23" width="5.7265625" style="38"/>
-    <col min="24" max="16384" width="5.7265625" style="39"/>
+    <col min="1" max="21" width="5.75" style="38"/>
+    <col min="22" max="22" width="5.75" style="39"/>
+    <col min="23" max="23" width="5.75" style="38"/>
+    <col min="24" max="16384" width="5.75" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="36" customFormat="1">
@@ -2635,23 +2864,23 @@
       <c r="W14" s="44"/>
       <c r="X14" s="53"/>
     </row>
-    <row r="15" spans="1:24" s="37" customFormat="1" ht="23.5">
+    <row r="15" spans="1:24" s="37" customFormat="1" ht="24">
       <c r="A15" s="45"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
-      <c r="I15" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
+      <c r="I15" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
       <c r="S15" s="44"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
@@ -2702,20 +2931,20 @@
     <row r="18" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="45"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
@@ -2726,20 +2955,20 @@
     <row r="19" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="45"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
       <c r="S19" s="44"/>
       <c r="T19" s="44"/>
       <c r="U19" s="44"/>
@@ -2749,18 +2978,18 @@
     </row>
     <row r="20" spans="1:24" s="37" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="45"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
       <c r="U20" s="44"/>
@@ -2783,24 +3012,24 @@
       <c r="W21" s="44"/>
       <c r="X21" s="53"/>
     </row>
-    <row r="22" spans="1:24" s="37" customFormat="1" ht="13">
+    <row r="22" spans="1:24" s="37" customFormat="1" ht="13.5">
       <c r="A22" s="45"/>
       <c r="B22" s="44"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
       <c r="U22" s="44"/>
@@ -2811,20 +3040,20 @@
     <row r="23" spans="1:24" s="37" customFormat="1">
       <c r="A23" s="45"/>
       <c r="F23" s="44"/>
-      <c r="G23" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="70"/>
+      <c r="G23" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="71"/>
       <c r="S23" s="44"/>
       <c r="T23" s="44"/>
       <c r="U23" s="44"/>
@@ -2835,18 +3064,18 @@
     <row r="24" spans="1:24" s="37" customFormat="1">
       <c r="A24" s="45"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74"/>
       <c r="S24" s="44"/>
       <c r="T24" s="44"/>
       <c r="U24" s="44"/>
@@ -2874,7 +3103,7 @@
       <c r="W25" s="44"/>
       <c r="X25" s="53"/>
     </row>
-    <row r="26" spans="1:24" s="37" customFormat="1" ht="13">
+    <row r="26" spans="1:24" s="37" customFormat="1" ht="13.5">
       <c r="A26" s="45"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -3284,9 +3513,10 @@
     <mergeCell ref="G19:R20"/>
     <mergeCell ref="G23:R24"/>
   </mergeCells>
+  <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3299,19 +3529,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="63.90625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="63.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="29" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="29" customWidth="1"/>
     <col min="6" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="C2" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -3333,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="32">
         <v>44291</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3425,27 +3655,28 @@
       <c r="E17" s="35"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.90625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="51.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
     <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -3476,55 +3707,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="27">
       <c r="B3" s="24">
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>93</v>
-      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:9" ht="27">
       <c r="B4" s="24">
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="F4" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>93</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="86" customHeight="1">
+    <row r="5" spans="1:9" ht="86.1" customHeight="1">
       <c r="B5" s="24">
         <v>3</v>
       </c>
@@ -3536,7 +3759,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9" ht="83" customHeight="1">
+    <row r="6" spans="1:9" ht="83.1" customHeight="1">
       <c r="B6" s="24">
         <v>4</v>
       </c>
@@ -3548,7 +3771,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="73" customHeight="1">
+    <row r="7" spans="1:9" ht="72.95" customHeight="1">
       <c r="B7" s="24">
         <v>5</v>
       </c>
@@ -3560,7 +3783,141 @@
       <c r="H7" s="25"/>
       <c r="I7" s="28"/>
     </row>
+    <row r="12" spans="1:9" ht="27">
+      <c r="C12" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="D16" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="D17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="D18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="D25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="D26" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="D27" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="D28" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3569,1067 +3926,1183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="39.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14">
         <v>6000</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="18">
         <v>44423</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16">
         <v>10</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="16">
         <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27">
       <c r="A14" s="5"/>
       <c r="B14" s="8"/>
       <c r="C14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="5">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16">
         <v>10</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="5">
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="16">
         <v>10</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="5">
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="16">
         <v>1000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="5">
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="16">
         <v>10</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="5">
         <v>9</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="16">
         <v>10</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="5">
         <v>10</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="16">
         <v>10</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="5">
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="16">
         <v>10</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="5">
         <v>12</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="16">
         <v>10</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="5">
         <v>13</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="16">
         <v>10</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="5">
         <v>14</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="16">
         <v>10</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="5">
         <v>15</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="16">
         <v>10</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="5">
         <v>16</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="16">
         <v>10</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="5">
         <v>17</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="16">
         <v>10</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="27">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="5">
         <v>18</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="16">
         <v>10</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="40.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25">
       <c r="A43" s="5">
         <v>19</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="16">
         <v>10</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="40.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="5">
         <v>20</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="16">
         <v>10</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="40.5">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="5">
         <v>21</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="16">
         <v>60000</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="40.5">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="5">
         <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="16">
         <v>6000</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="40.5">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="43.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="27">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A3E4C9-23A9-482B-AB1C-51957945D6F6}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="75"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="75"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="75"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="75"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D28"/>
   <sheetViews>
@@ -4637,39 +5110,39 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7">
         <v>44409</v>
@@ -4678,12 +5151,12 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8">
         <v>60000</v>
@@ -4692,12 +5165,12 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="9">
         <v>44454</v>
@@ -4706,12 +5179,12 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
@@ -4720,12 +5193,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8">
         <v>10</v>
@@ -4734,12 +5207,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
@@ -4748,12 +5221,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8">
         <v>10</v>
@@ -4762,12 +5235,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>1000</v>
@@ -4776,12 +5249,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8">
         <v>10</v>
@@ -4790,12 +5263,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
@@ -4804,26 +5277,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8">
         <v>10</v>
@@ -4832,12 +5305,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8">
         <v>10</v>
@@ -4846,12 +5319,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8">
         <v>10</v>
@@ -4860,12 +5333,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -4874,12 +5347,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8">
         <v>10</v>
@@ -4888,12 +5361,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8">
         <v>10</v>
@@ -4902,12 +5375,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="8">
         <v>10</v>
@@ -4916,12 +5389,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8">
         <v>10</v>
@@ -4930,12 +5403,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8">
         <v>10</v>
@@ -4944,12 +5417,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="8">
         <v>10</v>
@@ -4958,12 +5431,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="8">
         <v>10</v>
@@ -4972,12 +5445,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="8">
         <v>61000</v>
@@ -4986,12 +5459,12 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="8">
         <v>61000</v>
@@ -5000,133 +5473,134 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -5135,18 +5609,18 @@
         <v>18568</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8">
         <v>1234</v>
@@ -5158,12 +5632,12 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" s="8">
         <v>56</v>
@@ -5175,12 +5649,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="9">
         <v>33909</v>
@@ -5192,46 +5666,46 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="8">
         <v>1710014</v>
@@ -5243,29 +5717,29 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="8">
         <v>7048029428</v>
@@ -5277,24 +5751,24 @@
         <v>7048029428</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="8">
         <v>20220325</v>
       </c>
-      <c r="D17" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -5303,7 +5777,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -5312,7 +5786,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -5321,7 +5795,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -5330,7 +5804,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -5339,7 +5813,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -5348,7 +5822,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -5357,7 +5831,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="14.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -5366,7 +5840,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -5375,7 +5849,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="14.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -5384,7 +5858,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -5394,6 +5868,7 @@
       <c r="E28" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/DOC/結合テスト/社員情報更新作成結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/社員情報更新作成結合テスト_項目仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ems\ems\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05249D21-AE86-4BCC-9ED6-3D3B2E7E0F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E2DED7-18C7-4873-A5D5-3F38E3582766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8810" yWindow="670" windowWidth="11050" windowHeight="9820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>システム名</t>
   </si>
@@ -1012,35 +1012,35 @@
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
       <t>セイベツ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>生年月日</t>
     <rPh sb="0" eb="4">
       <t>セイネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>年齢</t>
     <rPh sb="0" eb="2">
       <t>ネンレイ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>入社年月日</t>
@@ -1050,25 +1050,25 @@
     <rPh sb="2" eb="5">
       <t>ネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>社齢</t>
     <rPh sb="0" eb="1">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ログイン者：</t>
     <rPh sb="4" eb="5">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ID：E001</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>E001の情報（社員情報テーブル）</t>
@@ -1081,28 +1081,28 @@
     <rPh sb="10" eb="12">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>計算値</t>
     <rPh sb="0" eb="3">
       <t>ケイサンチ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>結合テスト項目No</t>
@@ -1112,14 +1112,14 @@
     <rPh sb="5" eb="7">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>同上</t>
     <rPh sb="0" eb="2">
       <t>ドウジョウ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>入力（後回し）</t>
@@ -1129,21 +1129,21 @@
     <rPh sb="3" eb="5">
       <t>アトマワ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>更新ボタンをクリックする</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ログイン社の氏名</t>
@@ -1180,22 +1180,28 @@
 ②社内管理システム画面左側の「社員情報変更」をクリック</t>
   </si>
   <si>
-    <t>ログインしたらログイン社の情報は画面表示に出る</t>
-  </si>
-  <si>
-    <t>ログイン社のデータは画面に出る</t>
-  </si>
-  <si>
-    <t>ログインしゃの性別</t>
-  </si>
-  <si>
-    <t>ログイン社の生年月日</t>
-  </si>
-  <si>
     <t>社員情報テーブルに更新したものを画面に表示する。</t>
   </si>
   <si>
     <t>　　　　　　　　　　　　同上</t>
+  </si>
+  <si>
+    <t>ログインしたらログイン者の情報は画面表示に出る</t>
+  </si>
+  <si>
+    <t>ログイン者のデータは画面に出る</t>
+  </si>
+  <si>
+    <t>ログイン者の氏名</t>
+  </si>
+  <si>
+    <t>ログイン者の性別</t>
+  </si>
+  <si>
+    <t>ログイン者の生年月日</t>
+  </si>
+  <si>
+    <t>ログイン者の入社年月日</t>
   </si>
 </sst>
 </file>
@@ -1206,12 +1212,19 @@
     <numFmt numFmtId="164" formatCode="yyyy/m"/>
     <numFmt numFmtId="165" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,10 +1592,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,221 +1605,224 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2458,16 +2474,16 @@
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
       <c r="S15" s="32"/>
       <c r="T15" s="32"/>
       <c r="U15" s="32"/>
@@ -2518,20 +2534,20 @@
     <row r="18" spans="1:24" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
@@ -2542,20 +2558,20 @@
     <row r="19" spans="1:24" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
@@ -2565,18 +2581,18 @@
     </row>
     <row r="20" spans="1:24" s="25" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="33"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="57"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
       <c r="U20" s="32"/>
@@ -2603,20 +2619,20 @@
       <c r="A22" s="33"/>
       <c r="B22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
@@ -2627,20 +2643,20 @@
     <row r="23" spans="1:24" s="25" customFormat="1">
       <c r="A23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="65"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
@@ -2651,18 +2667,18 @@
     <row r="24" spans="1:24" s="25" customFormat="1">
       <c r="A24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="63"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="68"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
@@ -3100,7 +3116,7 @@
     <mergeCell ref="G19:R20"/>
     <mergeCell ref="G23:R24"/>
   </mergeCells>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -3127,7 +3143,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3135,7 +3151,7 @@
       <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="46" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="18" t="s">
@@ -3242,7 +3258,7 @@
       <c r="E17" s="23"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3251,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3299,14 +3315,14 @@
       <c r="C3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="68" t="s">
-        <v>78</v>
+      <c r="F3" s="75" t="s">
+        <v>80</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -3319,11 +3335,11 @@
       <c r="D4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>66</v>
+      <c r="E4" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -3336,9 +3352,9 @@
       <c r="D5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="66" t="s">
-        <v>79</v>
+      <c r="E5" s="70"/>
+      <c r="F5" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -3351,9 +3367,9 @@
       <c r="D6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="66" t="s">
-        <v>80</v>
+      <c r="E6" s="70"/>
+      <c r="F6" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -3366,8 +3382,8 @@
       <c r="D7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="66" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="47" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="23"/>
@@ -3381,9 +3397,9 @@
       <c r="D8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="66" t="s">
-        <v>70</v>
+      <c r="E8" s="70"/>
+      <c r="F8" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -3396,8 +3412,8 @@
       <c r="D9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="66" t="s">
+      <c r="E9" s="71"/>
+      <c r="F9" s="47" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="23"/>
@@ -3477,8 +3493,8 @@
       <c r="E15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="68" t="s">
-        <v>81</v>
+      <c r="F15" s="49" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -3604,7 +3620,7 @@
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="C3:C9"/>
   </mergeCells>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3614,7 +3630,7 @@
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3720,7 +3736,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4102,7 +4118,7 @@
       <c r="E28" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
